--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2219700.774805911</v>
+        <v>-2225563.094841091</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14628160.38786851</v>
+        <v>14626980.42908767</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>79.84384355773209</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>71.86954418429013</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,13 +744,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>68.76350334275739</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722711</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.314994701633</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>114.7398479781407</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -911,10 +911,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>160.8542999853957</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>76.13054698461657</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>73.09177164960271</v>
+        <v>131.1881123445646</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>2.985676702963014</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>173.7828199682119</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>49.32076208909378</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>226.8653251659286</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>138.3337389268892</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>244.6840044024605</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>40.1390509743901</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,7 +1528,7 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>40.78297506860809</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>21.27661765748141</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>117.8545206798371</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1664,10 +1664,10 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>12.5461228448062</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>25.53761210193216</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>40.78297506860809</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875307</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879327</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838877</v>
+        <v>24.17382596574998</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828889</v>
+        <v>52.06849973565011</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431722</v>
+        <v>70.57601873167843</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459962</v>
+        <v>55.72314698196084</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643935</v>
+        <v>41.29686219380056</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931846</v>
+        <v>41.22330424667967</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908573</v>
+        <v>42.97275566644694</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147786</v>
+        <v>53.79159358883908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804991</v>
+        <v>41.14384575541112</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922184</v>
+        <v>18.98356133658305</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367775</v>
+        <v>9.882059701038969</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920507</v>
+        <v>88.00800320656629</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1042.167257230335</v>
+        <v>1413.174075950466</v>
       </c>
       <c r="C2" t="n">
-        <v>648.9917557332658</v>
+        <v>1413.174075950466</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5506269499335</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5506269499335</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475493</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>893.8058945023292</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354857</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572948</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465276</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678797</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238214</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238214</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="V2" t="n">
-        <v>1442.662002941732</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="W2" t="n">
-        <v>1442.662002941732</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="X2" t="n">
-        <v>1442.662002941732</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1442.662002941732</v>
+        <v>1813.668821661863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021415</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622337</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.070220083714</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>305.6121358991106</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822424</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284334</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475493</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475493</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475493</v>
+        <v>921.5731989359475</v>
       </c>
       <c r="M3" t="n">
-        <v>581.7544444048472</v>
+        <v>921.5731989359475</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875477</v>
+        <v>921.5731989359475</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675956</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431029</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>382.5065569196679</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781116</v>
+        <v>425.5395450120517</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475493</v>
+        <v>202.427483828695</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>759.4637545949096</v>
+        <v>456.6551341546188</v>
       </c>
       <c r="C5" t="n">
-        <v>366.2882530978401</v>
+        <v>63.47963265754944</v>
       </c>
       <c r="D5" t="n">
-        <v>366.2882530978401</v>
+        <v>63.47963265754944</v>
       </c>
       <c r="E5" t="n">
-        <v>366.2882530978401</v>
+        <v>63.47963265754944</v>
       </c>
       <c r="F5" t="n">
-        <v>353.4342186682219</v>
+        <v>50.62559822793126</v>
       </c>
       <c r="G5" t="n">
-        <v>344.3118671966292</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475493</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253935</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253935</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354857</v>
+        <v>588.4870060424367</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572948</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465276</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023268</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>1870.655869043497</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523736</v>
+        <v>1647.155266602913</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958334</v>
+        <v>1647.155266602913</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661853</v>
+        <v>1305.048457306432</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661853</v>
+        <v>934.0494222747193</v>
       </c>
       <c r="X5" t="n">
-        <v>759.4637545949096</v>
+        <v>857.1498798660157</v>
       </c>
       <c r="Y5" t="n">
-        <v>759.4637545949096</v>
+        <v>857.1498798660157</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021415</v>
+        <v>556.1927859813193</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622337</v>
+        <v>556.1927859813193</v>
       </c>
       <c r="D6" t="n">
-        <v>375.070220083714</v>
+        <v>556.1927859813193</v>
       </c>
       <c r="E6" t="n">
-        <v>301.240147710378</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284334</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475493</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475493</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653852</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653852</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875477</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813766</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492408</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863475</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996762</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675956</v>
+        <v>887.3033373467733</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431029</v>
+        <v>707.9891204222806</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475493</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475493</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475493</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475493</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475493</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475493</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475493</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475493</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>818.0258575153864</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U7" t="n">
-        <v>532.5870657572873</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="V7" t="n">
-        <v>266.6077205781116</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6077205781116</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781116</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475493</v>
+        <v>204.9759422931587</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>611.6668769506938</v>
+        <v>924.8850248408685</v>
       </c>
       <c r="C8" t="n">
-        <v>611.6668769506938</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506938</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4808,46 +4808,46 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2111.323084698608</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.38222045283</v>
+        <v>2111.323084698608</v>
       </c>
       <c r="V8" t="n">
-        <v>1601.275411156348</v>
+        <v>2111.323084698608</v>
       </c>
       <c r="W8" t="n">
-        <v>1230.276376124636</v>
+        <v>2111.323084698608</v>
       </c>
       <c r="X8" t="n">
-        <v>840.8237710576924</v>
+        <v>1721.870479631664</v>
       </c>
       <c r="Y8" t="n">
-        <v>611.6668769506938</v>
+        <v>1325.379770552265</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>505.99526609797</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.015795124461</v>
+        <v>1883.050186671562</v>
       </c>
       <c r="C11" t="n">
-        <v>813.6365687735851</v>
+        <v>1561.670960320686</v>
       </c>
       <c r="D11" t="n">
-        <v>499.9917151364466</v>
+        <v>1248.026106683548</v>
       </c>
       <c r="E11" t="n">
-        <v>169.2044653991848</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>169.2044653991848</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
-        <v>128.659969465457</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543618</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622869</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689664</v>
+        <v>2211.748657236765</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.3140520158411</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="C13" t="n">
-        <v>62.11912770411553</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="D13" t="n">
-        <v>62.11912770411553</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411553</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
         <v>62.11912770411553</v>
@@ -5197,31 +5197,31 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581895</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.410653902774</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118228</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138167</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
         <v>1313.608118922022</v>
@@ -5230,7 +5230,7 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245448</v>
+        <v>936.0428256245447</v>
       </c>
       <c r="V13" t="n">
         <v>741.8597555915628</v>
@@ -5239,10 +5239,10 @@
         <v>530.3256286689343</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981113</v>
+        <v>508.8340956815793</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.7257955609485</v>
+        <v>357.5183096444165</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1135.01579512446</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C14" t="n">
-        <v>813.6365687735845</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D14" t="n">
-        <v>499.991715136446</v>
+        <v>1056.832157813863</v>
       </c>
       <c r="E14" t="n">
-        <v>380.9467447527722</v>
+        <v>726.0449080766009</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5312,16 +5312,16 @@
         <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2662.905472221034</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543618</v>
+        <v>2662.905472221034</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2345.249142300284</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689663</v>
+        <v>2020.554708367079</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.3140520158409</v>
+        <v>416.9138851238267</v>
       </c>
       <c r="C16" t="n">
-        <v>103.3140520158409</v>
+        <v>318.5050423360099</v>
       </c>
       <c r="D16" t="n">
-        <v>103.3140520158409</v>
+        <v>292.7094745562804</v>
       </c>
       <c r="E16" t="n">
-        <v>103.3140520158409</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3140520158409</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,7 +5455,7 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
@@ -5467,19 +5467,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915624</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689339</v>
+        <v>530.3256286689341</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981108</v>
+        <v>530.3256286689341</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.7257955609481</v>
+        <v>530.3256286689341</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292421</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5537,10 +5537,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5665,7 +5665,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,19 +5680,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5732,37 +5732,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,13 +5832,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5902,31 +5902,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5972,34 +5972,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6139,34 +6139,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218609</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
         <v>1895.47226483567</v>
@@ -6239,7 +6239,7 @@
         <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6248,16 +6248,16 @@
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755027</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755027</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755027</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6379,25 +6379,25 @@
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,52 +6461,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1184.702594472545</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1840.480565683104</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2357.000848274085</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517129</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878069</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879682</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746021</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232844</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6646,25 +6646,25 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463661</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057086</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835522</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923633</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076159</v>
+        <v>551.1212215006584</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1178.89287112734</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1834.670842337899</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2351.19112492888</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965119</v>
+        <v>365.6713676929727</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918658</v>
+        <v>309.385360640487</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237452</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546501</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431899</v>
+        <v>86.73045008374216</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>225.4160927171001</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805489</v>
+        <v>501.1958531658826</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188129</v>
+        <v>799.1395520791293</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770925</v>
+        <v>982.3291861103385</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145871</v>
+        <v>1256.686073727029</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1376.562239503608</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250203</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395503</v>
+        <v>835.7257283273696</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000926</v>
+        <v>666.3144371400722</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124404</v>
+        <v>546.1532258045804</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584485</v>
+        <v>436.9602755027489</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6965,22 +6965,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,19 +7333,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7400,10 +7400,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,16 +7445,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655142</v>
+        <v>776.8456480823213</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7819,37 +7819,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140929</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>636.904556553903</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>541.7935023090953</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837485</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>526.3032062588437</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.47814334312</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>236.1337451293773</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>556.1230176353738</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>530.9914402615954</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886033</v>
+        <v>567.4452609440966</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8456,7 +8456,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9243,13 +9243,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>278.2539578070002</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9258,10 +9258,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9480,16 +9480,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10194,10 +10194,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10206,10 +10206,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,10 +10431,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056834</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10443,10 +10443,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>122.1334109295184</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,13 +10665,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10680,10 +10680,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>624.8237719316268</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>82.7953728374284</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>297.8137645877548</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750159</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>56.64177929133064</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.3845889426333</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>209.6248565600519</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>255.0613059639786</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>57.46085746984627</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>54.71022589820888</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1284064.649783353</v>
+        <v>1283463.102169593</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1284064.649783353</v>
+        <v>1283463.102169593</v>
       </c>
     </row>
     <row r="4">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062208</v>
+        <v>22558.42953401333</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728562</v>
+        <v>62456.24177539662</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962304</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277115</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166294</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166294</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805105</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805105</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26442,22 +26442,22 @@
         <v>148402.4904640164</v>
       </c>
       <c r="K4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.9165635329</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="N4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="O4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996331</v>
       </c>
       <c r="P4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>58169.76931551967</v>
-      </c>
-      <c r="I5" t="n">
-        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-437834.7557860363</v>
+        <v>-434084.857585502</v>
       </c>
       <c r="C6" t="n">
-        <v>-255629.8074941805</v>
+        <v>-260226.2005514467</v>
       </c>
       <c r="D6" t="n">
-        <v>-261645.6091519539</v>
+        <v>-269381.8983753452</v>
       </c>
       <c r="E6" t="n">
-        <v>-265201.6626819361</v>
+        <v>-265411.3942286258</v>
       </c>
       <c r="F6" t="n">
-        <v>-153079.1012078915</v>
+        <v>-153288.8327545811</v>
       </c>
       <c r="G6" t="n">
         <v>-253247.0928518348</v>
@@ -26543,25 +26543,25 @@
         <v>-205821.7673151529</v>
       </c>
       <c r="J6" t="n">
-        <v>-418863.6849124383</v>
+        <v>-412347.3997578654</v>
       </c>
       <c r="K6" t="n">
-        <v>-212061.5357179358</v>
+        <v>-212061.5357179359</v>
       </c>
       <c r="L6" t="n">
-        <v>-267244.124652557</v>
+        <v>-271292.9618630291</v>
       </c>
       <c r="M6" t="n">
-        <v>-248022.5967747759</v>
+        <v>-249074.2917859641</v>
       </c>
       <c r="N6" t="n">
         <v>-205821.7673151529</v>
       </c>
       <c r="O6" t="n">
-        <v>-233589.4613579241</v>
+        <v>-233589.461357924</v>
       </c>
       <c r="P6" t="n">
-        <v>-205821.7673151529</v>
+        <v>-205821.767315153</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,22 +26802,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>776.4890963014442</v>
       </c>
-      <c r="I4" t="n">
-        <v>776.4890963014441</v>
-      </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095198</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660703</v>
+        <v>78.07030221924578</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551333</v>
+        <v>17.58004954287458</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971651</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407333</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>301.7428739377668</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>340.8559499010319</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27464,13 +27464,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>66.31852263746376</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758535</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>24.04094380275527</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,10 +27597,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>116.999671016706</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>159.9879199437786</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>309.4275320316572</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>61.99025433061844</v>
+        <v>3.893913635656503</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.3761846104852</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.8015838723062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,13 +27862,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>171.9448343270837</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.6604768226763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.3195537952425</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28020,19 +28020,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>28.23777443465968</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28752,10 +28752,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,10 +28980,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,13 +28995,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901311</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M29" t="n">
-        <v>86.65052755599584</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>43.4950968316021</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566225</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>76.79385455031624</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045018</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>35.71049010668769</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30271,7 +30271,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155848</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
         <v>130.3599693155844</v>
@@ -30405,19 +30405,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,13 +30651,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>35.7104901066896</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30891,16 +30891,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P46" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163656</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>487.7860652161189</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>451.733155452177</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344366</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>440.931093404677</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>93.07534195013997</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344366</v>
+        <v>406.3979660376466</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>440.9310934046771</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344366</v>
+        <v>482.07314808993</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>188.193610950082</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35978,10 +35978,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,10 +36048,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047994</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215748</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,22 +36838,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>638.1665882070873</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36926,10 +36926,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318507</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449822</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184961</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792975</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111302</v>
+        <v>230.2077838426612</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738832896</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563715</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37163,10 +37163,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>35.0500461102038</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>159.4555122371262</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624702</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37400,10 +37400,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934977</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>539.4516590774601</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434252</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37947,13 +37947,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437685</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
